--- a/2020 Python/smallExampleToPythonString.xlsx
+++ b/2020 Python/smallExampleToPythonString.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\git\Advent-Of-Code\2020 Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E71C688-9255-4870-B9A9-A363A450F426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1448DB76-67EE-41FA-BE36-7F7558E3488E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="2640" windowWidth="15255" windowHeight="13185" xr2:uid="{8007BCA4-DCCB-421C-9A6B-F8EBA7FA6F98}"/>
+    <workbookView xWindow="1320" yWindow="390" windowWidth="15285" windowHeight="16590" xr2:uid="{8007BCA4-DCCB-421C-9A6B-F8EBA7FA6F98}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -410,7 +406,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="str">
-        <f>"'" &amp; A1 &amp; IF(A2&lt;&gt;"","',","']")</f>
+        <f>"'" &amp; A1 &amp; "',"</f>
         <v>'.....#............#....#####.##',</v>
       </c>
     </row>
@@ -419,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B65" si="0">"'" &amp; A2 &amp; IF(A3&lt;&gt;"","',","']")</f>
+        <f t="shared" ref="B2:B65" si="0">"'" &amp; A2 &amp; "',"</f>
         <v>'.#.#....#......#....##.........',</v>
       </c>
     </row>
@@ -456,1909 +452,1909 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>'#.....#...#....#......##....##.']</v>
+        <v>'#.....#...#....#......##....##.',</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="1">"'" &amp; A66 &amp; IF(A67&lt;&gt;"","',","']")</f>
-        <v>'']</v>
+        <f t="shared" ref="B66:B129" si="1">"'" &amp; A66 &amp; "',"</f>
+        <v>'',</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="str">
         <f t="shared" si="1"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="2">"'" &amp; A130 &amp; IF(A131&lt;&gt;"","',","']")</f>
-        <v>'']</v>
+        <f t="shared" ref="B130:B193" si="2">"'" &amp; A130 &amp; "',"</f>
+        <v>'',</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="str">
         <f t="shared" si="2"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="str">
-        <f t="shared" ref="B194:B257" si="3">"'" &amp; A194 &amp; IF(A195&lt;&gt;"","',","']")</f>
-        <v>'']</v>
+        <f t="shared" ref="B194:B257" si="3">"'" &amp; A194 &amp; "',"</f>
+        <v>'',</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="str">
         <f t="shared" si="3"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" t="str">
-        <f t="shared" ref="B258:B321" si="4">"'" &amp; A258 &amp; IF(A259&lt;&gt;"","',","']")</f>
-        <v>'']</v>
+        <f t="shared" ref="B258:B321" si="4">"'" &amp; A258 &amp; "',"</f>
+        <v>'',</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" t="str">
         <f t="shared" si="4"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" t="str">
-        <f t="shared" ref="B322:B323" si="5">"'" &amp; A322 &amp; IF(A323&lt;&gt;"","',","']")</f>
-        <v>'']</v>
+        <f t="shared" ref="B322:B323" si="5">"'" &amp; A322 &amp; "',"</f>
+        <v>'',</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" t="str">
         <f t="shared" si="5"/>
-        <v>'']</v>
+        <v>'',</v>
       </c>
     </row>
   </sheetData>
